--- a/個人課表/T1234552.xlsx
+++ b/個人課表/T1234552.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12AF623-128E-4388-ACB0-638F34DF438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAEA539-9900-464D-8CFE-2C654D43324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="80" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,9 +81,6 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數位行銷</t>
   </si>
 </sst>
 </file>
@@ -134,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,11 +139,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,6 +166,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -437,7 +452,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -445,7 +460,7 @@
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,22 +477,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
+      <c r="D2" s="5">
+        <v>6395</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
+      <c r="D3" s="5">
+        <v>6395</v>
       </c>
       <c r="F3" s="3"/>
     </row>
